--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value859.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value859.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.997631582623132</v>
+        <v>0.6997039914131165</v>
       </c>
       <c r="B1">
-        <v>1.886148225513672</v>
+        <v>2.319869518280029</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.36503529548645</v>
       </c>
       <c r="D1">
-        <v>1.995709975856437</v>
+        <v>2.650514841079712</v>
       </c>
       <c r="E1">
-        <v>1.261043561151806</v>
+        <v>1.549545645713806</v>
       </c>
     </row>
   </sheetData>
